--- a/ProojetoTabela/clientes.xlsx
+++ b/ProojetoTabela/clientes.xlsx
@@ -1,47 +1,218 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Downloads\projeto5termobdag-main\ProojetoTabela\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA0ACA2-D214-4F3A-970E-C3E54F4463E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>projetosfatec23@outlook.com</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>Antônio</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Luiz</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Raimundo</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Márcio</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Fabio</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>Henrique</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>Juliana</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>Fernanda</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Aline</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Camila</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Bruna</t>
+  </si>
+  <si>
+    <t>Júlia</t>
+  </si>
+  <si>
+    <t>Carolina</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Letícia</t>
+  </si>
+  <si>
+    <t>Beatriz</t>
+  </si>
+  <si>
+    <t>Larissa</t>
+  </si>
+  <si>
+    <t>Catarina</t>
+  </si>
+  <si>
+    <t>Viviane</t>
+  </si>
+  <si>
+    <t>Regina</t>
+  </si>
+  <si>
+    <t>Priscila</t>
+  </si>
+  <si>
+    <t>Bianca</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
+    <t>Renata</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,17 +232,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C0CC0866-A660-45D4-8105-A3B368E8AB9B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,47 +583,435 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.19921875" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>nome</v>
-      </c>
-      <c r="B1" t="str">
-        <v>email</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>joão</v>
-      </c>
-      <c r="B2" t="str">
-        <v>projetosfatec23@outlook.com</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>gabriel</v>
-      </c>
-      <c r="B3" t="str">
-        <v>costapaiao@hotmail.com</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>lucas</v>
-      </c>
-      <c r="B4" t="str">
-        <v>projetosfatec23@outlook.com</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2:B50" r:id="rId1" display="projetosfatec23@outlook.com" xr:uid="{4C5A95FB-B736-4325-8791-AC849A17A1D5}"/>
+    <hyperlink ref="B51" r:id="rId2" xr:uid="{D91F7FD2-F3D0-4928-8B1B-5D8A05A0A6C0}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
+    <ignoredError sqref="A1:B1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>